--- a/data-governance/CSIEM_Data_Catalogue.xlsx
+++ b/data-governance/CSIEM_Data_Catalogue.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00065525\Github\csiem-data\data-lake\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00065525\GITHUB\csiem-data\data-governance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEAA33E5-3959-4A85-8F86-4E76783C4E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FCCA7A7-A5B1-4AD7-976B-19ABF1F8EBCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BC9683DB-6EDF-419C-90AE-B9006858D13B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{BC9683DB-6EDF-419C-90AE-B9006858D13B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="128">
   <si>
     <t>Group</t>
   </si>
@@ -415,6 +415,9 @@
   </si>
   <si>
     <t>SED Grab</t>
+  </si>
+  <si>
+    <t>GK-PAR</t>
   </si>
 </sst>
 </file>
@@ -850,12 +853,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93540D03-D0CE-447B-B6B5-ABD8DB3C1678}">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="555" topLeftCell="A13" activePane="bottomLeft"/>
+    <sheetView showFormulas="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="555" topLeftCell="A19" activePane="bottomLeft"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="J27" sqref="J27"/>
+      <selection pane="bottomLeft" activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2027,6 +2030,35 @@
         <v>118</v>
       </c>
     </row>
+    <row r="38" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H38" s="5">
+        <v>1</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="J1:J1048576">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Y">

--- a/data-governance/CSIEM_Data_Catalogue.xlsx
+++ b/data-governance/CSIEM_Data_Catalogue.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00065525\GITHUB\csiem-data\data-governance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00065525\Github\csiem-data\data-governance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FCCA7A7-A5B1-4AD7-976B-19ABF1F8EBCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22942C04-3ED7-486E-A43C-CBE2C60B931B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{BC9683DB-6EDF-419C-90AE-B9006858D13B}"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="28800" windowHeight="15540" xr2:uid="{BC9683DB-6EDF-419C-90AE-B9006858D13B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="130">
   <si>
     <t>Group</t>
   </si>
@@ -418,6 +418,12 @@
   </si>
   <si>
     <t>GK-PAR</t>
+  </si>
+  <si>
+    <t>WWMSP3</t>
+  </si>
+  <si>
+    <t>Ongoing</t>
   </si>
 </sst>
 </file>
@@ -525,21 +531,21 @@
   <dxfs count="2">
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -853,12 +859,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93540D03-D0CE-447B-B6B5-ABD8DB3C1678}">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="555" topLeftCell="A19" activePane="bottomLeft"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="I39" sqref="I39"/>
+      <selection pane="bottomLeft" activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1942,31 +1948,31 @@
         <v>61</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>116</v>
+        <v>84</v>
+      </c>
+      <c r="H35" s="5">
+        <v>18</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
@@ -1983,19 +1989,19 @@
         <v>42</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>116</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>119</v>
@@ -2015,19 +2021,22 @@
         <v>42</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>116</v>
       </c>
+      <c r="I37" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="J37" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
@@ -2043,28 +2052,57 @@
       <c r="D38" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>127</v>
+      <c r="E38" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H38" s="5">
+      <c r="H38" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H39" s="5">
         <v>1</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="I39" s="1" t="s">
         <v>94</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",J1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data-governance/CSIEM_Data_Catalogue.xlsx
+++ b/data-governance/CSIEM_Data_Catalogue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00065525\Github\csiem-data\data-governance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22942C04-3ED7-486E-A43C-CBE2C60B931B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60A50DE-8DFB-4550-B359-7E072F84AA12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="28800" windowHeight="15540" xr2:uid="{BC9683DB-6EDF-419C-90AE-B9006858D13B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BC9683DB-6EDF-419C-90AE-B9006858D13B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -862,9 +862,9 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView showFormulas="1" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="555" topLeftCell="A19" activePane="bottomLeft"/>
+      <pane ySplit="555" topLeftCell="A10" activePane="bottomLeft"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="J36" sqref="J36"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/data-governance/CSIEM_Data_Catalogue.xlsx
+++ b/data-governance/CSIEM_Data_Catalogue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00065525\Github\csiem-data\data-governance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60A50DE-8DFB-4550-B359-7E072F84AA12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35AB65A-57CB-4E41-81A3-B01FDE6A0CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BC9683DB-6EDF-419C-90AE-B9006858D13B}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="28800" windowHeight="15540" xr2:uid="{BC9683DB-6EDF-419C-90AE-B9006858D13B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="132">
   <si>
     <t>Group</t>
   </si>
@@ -424,6 +424,12 @@
   </si>
   <si>
     <t>Ongoing</t>
+  </si>
+  <si>
+    <t>WWMSP3.1</t>
+  </si>
+  <si>
+    <t>Needs review, but should be removed</t>
   </si>
 </sst>
 </file>
@@ -469,7 +475,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -479,6 +485,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,7 +507,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -523,6 +535,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -859,12 +880,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93540D03-D0CE-447B-B6B5-ABD8DB3C1678}">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="555" topLeftCell="A10" activePane="bottomLeft"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="450" topLeftCell="A12" activePane="bottomLeft"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1888,7 +1909,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
@@ -1911,7 +1932,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>61</v>
       </c>
@@ -1943,71 +1964,68 @@
         <v>118</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B35" s="4" t="s">
+    <row r="35" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H35" s="12">
         <v>18</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="I35" s="10" t="s">
         <v>129</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="K35" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B36" s="4" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>116</v>
+        <v>86</v>
+      </c>
+      <c r="H36" s="5">
+        <v>18</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>61</v>
       </c>
@@ -2021,25 +2039,25 @@
         <v>42</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>116</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>61</v>
       </c>
@@ -2053,22 +2071,25 @@
         <v>42</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>116</v>
       </c>
+      <c r="I38" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="J38" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>61</v>
       </c>
@@ -2081,19 +2102,48 @@
       <c r="D39" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>127</v>
+      <c r="E39" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H39" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H40" s="5">
         <v>1</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="I40" s="1" t="s">
         <v>94</v>
       </c>
     </row>

--- a/data-governance/CSIEM_Data_Catalogue.xlsx
+++ b/data-governance/CSIEM_Data_Catalogue.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00065525\Github\csiem-data\data-governance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35AB65A-57CB-4E41-81A3-B01FDE6A0CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E83192-6964-4C2F-BB76-6B3FDC2F383D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="28800" windowHeight="15540" xr2:uid="{BC9683DB-6EDF-419C-90AE-B9006858D13B}"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="28800" windowHeight="15540" xr2:uid="{BC9683DB-6EDF-419C-90AE-B9006858D13B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Info" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="139">
   <si>
     <t>Group</t>
   </si>
@@ -312,15 +313,6 @@
     <t>AMNMProfile</t>
   </si>
   <si>
-    <t>On Demand</t>
-  </si>
-  <si>
-    <t>Periodical</t>
-  </si>
-  <si>
-    <t>Static</t>
-  </si>
-  <si>
     <t>Tronox Kwinana Pigment Plant</t>
   </si>
   <si>
@@ -430,6 +422,36 @@
   </si>
   <si>
     <t>Needs review, but should be removed</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Data Lake</t>
+  </si>
+  <si>
+    <t>Data Warehouse</t>
+  </si>
+  <si>
+    <t>Finalised</t>
+  </si>
+  <si>
+    <t>Site info missing for some sites. Missing data not in warehouse</t>
   </si>
 </sst>
 </file>
@@ -880,12 +902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93540D03-D0CE-447B-B6B5-ABD8DB3C1678}">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="450" topLeftCell="A12" activePane="bottomLeft"/>
-      <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="K36" sqref="K36"/>
+    <sheetView showFormulas="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -899,10 +919,15 @@
     <col min="7" max="7" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="37.140625" style="1"/>
+    <col min="10" max="10" width="5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="3.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="37.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>60</v>
       </c>
@@ -930,11 +955,23 @@
       <c r="I1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="J1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>61</v>
       </c>
@@ -960,13 +997,16 @@
         <v>16</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>61</v>
       </c>
@@ -992,13 +1032,16 @@
         <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>61</v>
       </c>
@@ -1024,13 +1067,16 @@
         <v>1</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>61</v>
       </c>
@@ -1053,16 +1099,19 @@
         <v>81</v>
       </c>
       <c r="H5" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="L5" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>61</v>
       </c>
@@ -1088,13 +1137,16 @@
         <v>7</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>61</v>
       </c>
@@ -1117,16 +1169,19 @@
         <v>84</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>61</v>
       </c>
@@ -1149,16 +1204,19 @@
         <v>82</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>61</v>
       </c>
@@ -1184,13 +1242,16 @@
         <v>26</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>61</v>
       </c>
@@ -1216,13 +1277,16 @@
         <v>18</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>61</v>
       </c>
@@ -1248,13 +1312,16 @@
         <v>17</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>61</v>
       </c>
@@ -1280,13 +1347,16 @@
         <v>19</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>61</v>
       </c>
@@ -1312,13 +1382,16 @@
         <v>8</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>61</v>
       </c>
@@ -1344,13 +1417,16 @@
         <v>4</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>61</v>
       </c>
@@ -1373,16 +1449,19 @@
         <v>78</v>
       </c>
       <c r="H15" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="L15" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>61</v>
       </c>
@@ -1390,16 +1469,16 @@
         <v>71</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>84</v>
@@ -1408,13 +1487,19 @@
         <v>23</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>61</v>
       </c>
@@ -1428,10 +1513,10 @@
         <v>70</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>84</v>
@@ -1440,13 +1525,16 @@
         <v>14</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>61</v>
       </c>
@@ -1460,10 +1548,10 @@
         <v>70</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>87</v>
@@ -1472,16 +1560,19 @@
         <v>2</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>61</v>
       </c>
@@ -1495,10 +1586,10 @@
         <v>70</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>84</v>
@@ -1507,13 +1598,16 @@
         <v>1</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>61</v>
       </c>
@@ -1527,10 +1621,10 @@
         <v>70</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>84</v>
@@ -1539,13 +1633,16 @@
         <v>1</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>61</v>
       </c>
@@ -1553,16 +1650,16 @@
         <v>72</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>84</v>
@@ -1571,13 +1668,16 @@
         <v>1</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>61</v>
       </c>
@@ -1585,31 +1685,34 @@
         <v>72</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D22" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="G22" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H22" s="5">
         <v>1</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>61</v>
       </c>
@@ -1617,16 +1720,16 @@
         <v>72</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>84</v>
@@ -1635,13 +1738,16 @@
         <v>1</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>61</v>
       </c>
@@ -1658,11 +1764,17 @@
         <v>33</v>
       </c>
       <c r="F24" s="4"/>
-      <c r="J24" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="I24" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>61</v>
       </c>
@@ -1688,16 +1800,19 @@
         <v>3</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="K25" s="9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N25" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>61</v>
       </c>
@@ -1723,13 +1838,16 @@
         <v>32</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>61</v>
       </c>
@@ -1752,13 +1870,16 @@
         <v>80</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>61</v>
       </c>
@@ -1775,7 +1896,7 @@
         <v>38</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>86</v>
@@ -1784,13 +1905,16 @@
         <v>1</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>61</v>
       </c>
@@ -1807,7 +1931,7 @@
         <v>38</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>86</v>
@@ -1816,13 +1940,16 @@
         <v>1</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>61</v>
       </c>
@@ -1839,7 +1966,7 @@
         <v>38</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>84</v>
@@ -1848,13 +1975,16 @@
         <v>1</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>61</v>
       </c>
@@ -1871,7 +2001,7 @@
         <v>38</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>87</v>
@@ -1880,13 +2010,16 @@
         <v>1</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>61</v>
       </c>
@@ -1905,11 +2038,17 @@
       <c r="F32" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="J32" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="I32" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>61</v>
       </c>
@@ -1928,11 +2067,17 @@
       <c r="F33" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="J33" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="I33" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>61</v>
       </c>
@@ -1958,13 +2103,16 @@
         <v>7</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
         <v>61</v>
       </c>
@@ -1981,7 +2129,7 @@
         <v>59</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G35" s="10" t="s">
         <v>84</v>
@@ -1989,17 +2137,21 @@
       <c r="H35" s="12">
         <v>18</v>
       </c>
-      <c r="I35" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>118</v>
-      </c>
+      <c r="I35" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J35" s="10"/>
       <c r="K35" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B36" s="4" t="s">
         <v>26</v>
       </c>
@@ -2013,7 +2165,7 @@
         <v>59</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>86</v>
@@ -2022,10 +2174,13 @@
         <v>18</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>61</v>
       </c>
@@ -2048,16 +2203,19 @@
         <v>89</v>
       </c>
       <c r="H37" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K37" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="I37" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="L37" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>61</v>
       </c>
@@ -2080,16 +2238,19 @@
         <v>83</v>
       </c>
       <c r="H38" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K38" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="I38" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="L38" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>61</v>
       </c>
@@ -2112,13 +2273,19 @@
         <v>86</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>61</v>
       </c>
@@ -2132,10 +2299,10 @@
         <v>42</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>86</v>
@@ -2144,19 +2311,87 @@
         <v>1</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>94</v>
+        <v>126</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1048576">
+  <conditionalFormatting sqref="K1:L1048576">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Y">
-      <formula>NOT(ISERROR(SEARCH("Y",J1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Y",K1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Y">
-      <formula>NOT(ISERROR(SEARCH("Y",J1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Y",K1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{86BF4CCB-FA6C-450A-8AFA-6F8E8FD6B3C1}">
+          <x14:formula1>
+            <xm:f>Info!$A$2:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>I2:I40</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CF942FC5-32B4-4A6A-A374-4F0A09225509}">
+          <x14:formula1>
+            <xm:f>Info!$C$2:$C$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>L2:L40</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF66B08-557E-4018-8745-21AB70FFE313}">
+  <dimension ref="A2:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data-governance/CSIEM_Data_Catalogue.xlsx
+++ b/data-governance/CSIEM_Data_Catalogue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00065525\Github\csiem-data\data-governance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2069BD2D-D575-485B-8019-0C05153C17B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62691C3D-4E9F-49AB-8641-DC1DCD901F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BC9683DB-6EDF-419C-90AE-B9006858D13B}"/>
   </bookViews>
@@ -18,7 +18,6 @@
     <sheet name="Info" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -778,7 +777,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
@@ -811,273 +810,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1397,7 +1129,7 @@
   <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView showFormulas="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1704,7 +1436,7 @@
         <v>116</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>161</v>
@@ -1751,7 +1483,7 @@
         <v>114</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O7" s="3" t="s">
         <v>161</v>
@@ -1798,7 +1530,7 @@
         <v>116</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>161</v>
@@ -2130,7 +1862,7 @@
         <v>160</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>

--- a/data-governance/CSIEM_Data_Catalogue.xlsx
+++ b/data-governance/CSIEM_Data_Catalogue.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00065525\Github\csiem-data\data-governance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62691C3D-4E9F-49AB-8641-DC1DCD901F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9BDF4F-1046-4E34-99FF-4A99B3836346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BC9683DB-6EDF-419C-90AE-B9006858D13B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="181">
   <si>
     <t>Group</t>
   </si>
@@ -552,6 +552,33 @@
   </si>
   <si>
     <t>Data not received, Low Priority</t>
+  </si>
+  <si>
+    <t>Westport</t>
+  </si>
+  <si>
+    <t>WSPT</t>
+  </si>
+  <si>
+    <t>JPPL</t>
+  </si>
+  <si>
+    <t>JPPL-ADCP</t>
+  </si>
+  <si>
+    <t>DPIRD</t>
+  </si>
+  <si>
+    <t>DPIRD-TEMP</t>
+  </si>
+  <si>
+    <t>KP-M-CSMWQ</t>
+  </si>
+  <si>
+    <t>ECO Grab</t>
+  </si>
+  <si>
+    <t>DPIRD Crab Research Temperature Logging</t>
   </si>
 </sst>
 </file>
@@ -1126,10 +1153,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R40"/>
+  <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2111,7 +2138,7 @@
         <v>61</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>166</v>
@@ -2120,35 +2147,35 @@
         <v>72</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>106</v>
+        <v>173</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>107</v>
+        <v>174</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>112</v>
+        <v>175</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J21" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="L21" s="3"/>
       <c r="M21" s="3" t="s">
         <v>115</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
@@ -2158,7 +2185,7 @@
         <v>61</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>166</v>
@@ -2167,19 +2194,19 @@
         <v>72</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="J22" s="7">
         <v>1</v>
@@ -2192,7 +2219,7 @@
         <v>115</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>162</v>
@@ -2205,7 +2232,7 @@
         <v>61</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>166</v>
@@ -2214,19 +2241,19 @@
         <v>72</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="J23" s="7">
         <v>1</v>
@@ -2239,7 +2266,7 @@
         <v>115</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>162</v>
@@ -2252,26 +2279,32 @@
         <v>61</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>166</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H24" s="6"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="7"/>
+        <v>93</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J24" s="7">
+        <v>1</v>
+      </c>
       <c r="K24" s="3" t="s">
         <v>125</v>
       </c>
@@ -2293,7 +2326,7 @@
         <v>61</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>166</v>
@@ -2308,34 +2341,26 @@
         <v>32</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="J25" s="7">
-        <v>3</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="H25" s="6"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="7"/>
       <c r="K25" s="3" t="s">
         <v>125</v>
       </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N25" s="3" t="s">
         <v>160</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P25" s="3"/>
-      <c r="Q25" s="9" t="s">
-        <v>119</v>
-      </c>
+      <c r="Q25" s="3"/>
     </row>
     <row r="26" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
@@ -2357,23 +2382,23 @@
         <v>32</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>84</v>
       </c>
       <c r="J26" s="7">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>125</v>
       </c>
       <c r="L26" s="3"/>
       <c r="M26" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>160</v>
@@ -2382,14 +2407,16 @@
         <v>161</v>
       </c>
       <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
+      <c r="Q26" s="9" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="27" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>166</v>
@@ -2407,18 +2434,20 @@
         <v>36</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J27" s="7"/>
+        <v>84</v>
+      </c>
+      <c r="J27" s="7">
+        <v>32</v>
+      </c>
       <c r="K27" s="3" t="s">
         <v>125</v>
       </c>
       <c r="L27" s="3"/>
       <c r="M27" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>160</v>
@@ -2429,12 +2458,12 @@
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
     </row>
-    <row r="28" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>166</v>
@@ -2449,17 +2478,15 @@
         <v>32</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="J28" s="7">
-        <v>1</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="J28" s="7"/>
       <c r="K28" s="3" t="s">
         <v>125</v>
       </c>
@@ -2476,7 +2503,7 @@
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
     </row>
-    <row r="29" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>61</v>
       </c>
@@ -2499,7 +2526,7 @@
         <v>38</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>86</v>
@@ -2546,10 +2573,10 @@
         <v>38</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J30" s="7">
         <v>1</v>
@@ -2575,7 +2602,7 @@
         <v>61</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>166</v>
@@ -2593,10 +2620,10 @@
         <v>38</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J31" s="7">
         <v>1</v>
@@ -2622,7 +2649,7 @@
         <v>61</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>166</v>
@@ -2631,21 +2658,25 @@
         <v>71</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="I32" s="3"/>
-      <c r="J32" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J32" s="7">
+        <v>1</v>
+      </c>
       <c r="K32" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L32" s="3"/>
       <c r="M32" s="3" t="s">
@@ -2655,7 +2686,7 @@
         <v>160</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
@@ -2671,19 +2702,19 @@
         <v>166</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>76</v>
+        <v>39</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="7"/>
@@ -2708,7 +2739,7 @@
         <v>61</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>166</v>
@@ -2717,35 +2748,31 @@
         <v>26</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>59</v>
+        <v>17</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="J34" s="7">
-        <v>7</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="I34" s="3"/>
+      <c r="J34" s="7"/>
       <c r="K34" s="3" t="s">
         <v>129</v>
       </c>
       <c r="L34" s="3"/>
       <c r="M34" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
@@ -2773,31 +2800,29 @@
         <v>59</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="J35" s="7">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="L35" s="3"/>
       <c r="M35" s="3" t="s">
         <v>114</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>161</v>
       </c>
       <c r="P35" s="3"/>
-      <c r="Q35" s="3" t="s">
-        <v>127</v>
-      </c>
+      <c r="Q35" s="3"/>
     </row>
     <row r="36" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
@@ -2822,10 +2847,10 @@
         <v>59</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J36" s="7">
         <v>18</v>
@@ -2834,7 +2859,9 @@
         <v>125</v>
       </c>
       <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
+      <c r="M36" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="N36" s="3" t="s">
         <v>130</v>
       </c>
@@ -2842,7 +2869,9 @@
         <v>161</v>
       </c>
       <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
+      <c r="Q36" s="3" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="37" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
@@ -2855,38 +2884,36 @@
         <v>166</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>113</v>
+        <v>86</v>
+      </c>
+      <c r="J37" s="7">
+        <v>18</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L37" s="3"/>
-      <c r="M37" s="3" t="s">
-        <v>115</v>
-      </c>
+      <c r="M37" s="3"/>
       <c r="N37" s="3" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
@@ -2911,19 +2938,19 @@
         <v>42</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>113</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="L38" s="3"/>
       <c r="M38" s="3" t="s">
@@ -2958,13 +2985,13 @@
         <v>42</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>113</v>
@@ -2974,10 +3001,10 @@
       </c>
       <c r="L39" s="3"/>
       <c r="M39" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="O39" s="3" t="s">
         <v>163</v>
@@ -3004,33 +3031,168 @@
       <c r="F40" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G40" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>123</v>
+      <c r="G40" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="I40" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="J40" s="7">
-        <v>1</v>
+      <c r="J40" s="7" t="s">
+        <v>113</v>
       </c>
       <c r="K40" s="3" t="s">
         <v>125</v>
       </c>
       <c r="L40" s="3"/>
       <c r="M40" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N40" s="3" t="s">
         <v>130</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J41" s="7">
+        <v>1</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J42" s="2">
+        <v>3</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43" t="s">
+        <v>178</v>
+      </c>
+      <c r="H43" t="s">
+        <v>178</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J43" s="2">
+        <v>23</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>162</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
@@ -3059,25 +3221,25 @@
           <x14:formula1>
             <xm:f>Info!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K40</xm:sqref>
+          <xm:sqref>K2:K41 K43</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CF942FC5-32B4-4A6A-A374-4F0A09225509}">
           <x14:formula1>
             <xm:f>Info!$C$2:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>N2:N40</xm:sqref>
+          <xm:sqref>N2:N43</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BB0B2BF8-FD59-4294-B6C8-0A2A19E7DF12}">
           <x14:formula1>
             <xm:f>Info!$E$2:$E$21</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B40</xm:sqref>
+          <xm:sqref>B2:B43</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{06EFB126-0F6A-42BD-ABB7-375EB243C7CB}">
           <x14:formula1>
             <xm:f>Info!$G$2:$G$4</xm:f>
           </x14:formula1>
-          <xm:sqref>O2:O40</xm:sqref>
+          <xm:sqref>O2:O41</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
